--- a/output8.xlsx
+++ b/output8.xlsx
@@ -12,27 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Grade 1</t>
+  </si>
+  <si>
+    <t>Grade 2</t>
+  </si>
+  <si>
+    <t>Grade 4</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
   <si>
     <t>Amit</t>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -77,6 +77,12 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="64"/>
+      <i val="true"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -97,12 +103,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="13"/>
+        <fgColor indexed="43"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="43"/>
       </patternFill>
     </fill>
   </fills>
@@ -121,7 +127,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -134,34 +140,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="2.19140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.9296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="1.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.37890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.37890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.37890625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.37890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="1">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s" s="1">
         <v>5</v>
@@ -190,10 +196,10 @@
         <v>5.0</v>
       </c>
       <c r="G2" s="2">
-        <f>MAX(D2:F2)</f>
+        <f>MAX(C2:F2)</f>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(D2:F2)</f>
+        <f>AVERAGE(C2:F2)</f>
       </c>
     </row>
     <row r="3">
@@ -216,10 +222,10 @@
         <v>7.0</v>
       </c>
       <c r="G3" s="2">
-        <f>MAX(D3:F3)</f>
+        <f>MAX(C3:F3)</f>
       </c>
       <c r="H3" s="2">
-        <f>AVERAGE(D3:F3)</f>
+        <f>AVERAGE(C3:F3)</f>
       </c>
     </row>
     <row r="4">
@@ -242,10 +248,10 @@
         <v>6.0</v>
       </c>
       <c r="G4" s="2">
-        <f>MAX(D4:F4)</f>
+        <f>MAX(C4:F4)</f>
       </c>
       <c r="H4" s="2">
-        <f>AVERAGE(D4:F4)</f>
+        <f>AVERAGE(C4:F4)</f>
       </c>
     </row>
     <row r="5">
@@ -268,10 +274,10 @@
         <v>9.0</v>
       </c>
       <c r="G5" s="2">
-        <f>MAX(D5:F5)</f>
+        <f>MAX(C5:F5)</f>
       </c>
       <c r="H5" s="2">
-        <f>AVERAGE(D5:F5)</f>
+        <f>AVERAGE(C5:F5)</f>
       </c>
     </row>
   </sheetData>
